--- a/data/pca/factorExposure/factorExposure_2019-01-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1091704724486415</v>
+        <v>0.06820659984755785</v>
       </c>
       <c r="C2">
-        <v>0.004492826020263034</v>
+        <v>0.03438554074845107</v>
       </c>
       <c r="D2">
-        <v>0.07742697415361914</v>
+        <v>0.01908780296695156</v>
       </c>
       <c r="E2">
-        <v>0.01551939683518262</v>
+        <v>-0.04196262702394955</v>
       </c>
       <c r="F2">
-        <v>0.1316241910527921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1360193791376578</v>
+      </c>
+      <c r="G2">
+        <v>0.05631554736299355</v>
+      </c>
+      <c r="H2">
+        <v>0.05787933674140665</v>
+      </c>
+      <c r="I2">
+        <v>0.1070536090583847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2153347609579441</v>
+        <v>0.159390302959196</v>
       </c>
       <c r="C3">
-        <v>-0.1496957094622368</v>
+        <v>0.1094653238460916</v>
       </c>
       <c r="D3">
-        <v>0.07819686806856507</v>
+        <v>-0.004502447300371259</v>
       </c>
       <c r="E3">
-        <v>-0.01089373606309402</v>
+        <v>0.002642022393406376</v>
       </c>
       <c r="F3">
-        <v>0.3407466221070968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3854267530780163</v>
+      </c>
+      <c r="G3">
+        <v>0.2675762778222885</v>
+      </c>
+      <c r="H3">
+        <v>0.09383232248731133</v>
+      </c>
+      <c r="I3">
+        <v>0.3577007551257628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09544953911968511</v>
+        <v>0.07179652905379921</v>
       </c>
       <c r="C4">
-        <v>-0.03430546260191781</v>
+        <v>0.05102106983295956</v>
       </c>
       <c r="D4">
-        <v>0.05437133318152233</v>
+        <v>-0.01530880751819675</v>
       </c>
       <c r="E4">
-        <v>-0.02954209776568972</v>
+        <v>-0.04137484310965303</v>
       </c>
       <c r="F4">
-        <v>0.07325710155277113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07947029933524541</v>
+      </c>
+      <c r="G4">
+        <v>0.02282128893559552</v>
+      </c>
+      <c r="H4">
+        <v>0.05008792710261853</v>
+      </c>
+      <c r="I4">
+        <v>0.05665339190134474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02246459930520982</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01036073908626601</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.004485963964567957</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005883182417904147</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.007305993622369228</v>
+      </c>
+      <c r="G6">
+        <v>-0.01425672873136384</v>
+      </c>
+      <c r="H6">
+        <v>-0.02017973212531284</v>
+      </c>
+      <c r="I6">
+        <v>-0.004487283369143157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04509456706132285</v>
+        <v>0.03479576350337699</v>
       </c>
       <c r="C7">
-        <v>-0.01233164008040183</v>
+        <v>0.02019837104509091</v>
       </c>
       <c r="D7">
-        <v>0.04541711991089029</v>
+        <v>-0.03622244123754521</v>
       </c>
       <c r="E7">
-        <v>0.003532381760959955</v>
+        <v>-0.02841965352847408</v>
       </c>
       <c r="F7">
-        <v>0.06090287618047423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04922409561366849</v>
+      </c>
+      <c r="G7">
+        <v>0.05208202789746147</v>
+      </c>
+      <c r="H7">
+        <v>-0.0003299322086166857</v>
+      </c>
+      <c r="I7">
+        <v>0.03626356766173455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.05369013005033854</v>
+        <v>0.02722119802788439</v>
       </c>
       <c r="C8">
-        <v>-0.05362518121404065</v>
+        <v>0.05343544082591908</v>
       </c>
       <c r="D8">
-        <v>0.03373361136143876</v>
+        <v>-0.01213277908073318</v>
       </c>
       <c r="E8">
-        <v>-0.02652304327005221</v>
+        <v>-0.02058042641043315</v>
       </c>
       <c r="F8">
-        <v>0.06955627212696752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07187995836497812</v>
+      </c>
+      <c r="G8">
+        <v>0.04086205193311834</v>
+      </c>
+      <c r="H8">
+        <v>0.03960086995403704</v>
+      </c>
+      <c r="I8">
+        <v>0.06519496859507182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08062517635754192</v>
+        <v>0.06007393210772078</v>
       </c>
       <c r="C9">
-        <v>-0.02581003852838823</v>
+        <v>0.0445331552882341</v>
       </c>
       <c r="D9">
-        <v>0.05456855246007565</v>
+        <v>-0.01838643221209804</v>
       </c>
       <c r="E9">
-        <v>-0.04266477630359165</v>
+        <v>-0.03611550165496448</v>
       </c>
       <c r="F9">
-        <v>0.05544956010149837</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07822600198924357</v>
+      </c>
+      <c r="G9">
+        <v>0.02341268677680071</v>
+      </c>
+      <c r="H9">
+        <v>0.04572083442230365</v>
+      </c>
+      <c r="I9">
+        <v>0.03241238505766915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02593988249927119</v>
+        <v>0.03730044970986036</v>
       </c>
       <c r="C10">
-        <v>0.1494155520960208</v>
+        <v>-0.1627973696662514</v>
       </c>
       <c r="D10">
-        <v>-0.07263939276678004</v>
+        <v>0.007923204583035604</v>
       </c>
       <c r="E10">
-        <v>0.03682753104258255</v>
+        <v>0.03665741064352938</v>
       </c>
       <c r="F10">
-        <v>0.07570344207686801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.06770662244861507</v>
+      </c>
+      <c r="G10">
+        <v>0.02180632715546386</v>
+      </c>
+      <c r="H10">
+        <v>0.04194916069065168</v>
+      </c>
+      <c r="I10">
+        <v>0.04954280272990833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06004281733612229</v>
+        <v>0.04939993644958551</v>
       </c>
       <c r="C11">
-        <v>-0.01746887550028114</v>
+        <v>0.03397127203211451</v>
       </c>
       <c r="D11">
-        <v>0.01276721611405268</v>
+        <v>0.00575924691160058</v>
       </c>
       <c r="E11">
-        <v>0.006958652001131523</v>
+        <v>-0.01058072262316051</v>
       </c>
       <c r="F11">
-        <v>0.04317795142326004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03732824304838921</v>
+      </c>
+      <c r="G11">
+        <v>-0.0006845410096287305</v>
+      </c>
+      <c r="H11">
+        <v>0.01539796245786183</v>
+      </c>
+      <c r="I11">
+        <v>0.02847977362008023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0478471768948544</v>
+        <v>0.04389054812589473</v>
       </c>
       <c r="C12">
-        <v>-0.01929682376090732</v>
+        <v>0.03054765864776389</v>
       </c>
       <c r="D12">
-        <v>0.01078040154215652</v>
+        <v>-0.00576736085137947</v>
       </c>
       <c r="E12">
-        <v>-0.01066927276359129</v>
+        <v>-0.01064106147422691</v>
       </c>
       <c r="F12">
-        <v>0.0279727076920822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01351049007028035</v>
+      </c>
+      <c r="G12">
+        <v>0.003536619803549102</v>
+      </c>
+      <c r="H12">
+        <v>0.005681441265348249</v>
+      </c>
+      <c r="I12">
+        <v>0.01645849874433166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06209932886536045</v>
+        <v>0.04345697084551282</v>
       </c>
       <c r="C13">
-        <v>-0.0247004110626059</v>
+        <v>0.02944094314545789</v>
       </c>
       <c r="D13">
-        <v>0.02916140406396412</v>
+        <v>0.01432304244621504</v>
       </c>
       <c r="E13">
-        <v>0.02874115336909651</v>
+        <v>-0.0115916203872281</v>
       </c>
       <c r="F13">
-        <v>0.1069265192537839</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1035071972438354</v>
+      </c>
+      <c r="G13">
+        <v>0.03137028491712076</v>
+      </c>
+      <c r="H13">
+        <v>0.03325853529583717</v>
+      </c>
+      <c r="I13">
+        <v>0.06193326500753989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03672076092056877</v>
+        <v>0.0272761439072256</v>
       </c>
       <c r="C14">
-        <v>-0.01846216725865565</v>
+        <v>0.02376032083463061</v>
       </c>
       <c r="D14">
-        <v>0.04024792709145291</v>
+        <v>-0.005867349593999371</v>
       </c>
       <c r="E14">
-        <v>-0.003926257001350099</v>
+        <v>-0.02948243302443339</v>
       </c>
       <c r="F14">
-        <v>0.0205031092636547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03590985213191021</v>
+      </c>
+      <c r="G14">
+        <v>0.05324134697717163</v>
+      </c>
+      <c r="H14">
+        <v>0.01687707161590244</v>
+      </c>
+      <c r="I14">
+        <v>0.01764219171260204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05087268262107793</v>
+        <v>0.04278471935821718</v>
       </c>
       <c r="C16">
-        <v>-0.02297580466449323</v>
+        <v>0.03584950703939349</v>
       </c>
       <c r="D16">
-        <v>0.009787962250483603</v>
+        <v>0.0002753769900602147</v>
       </c>
       <c r="E16">
-        <v>0.0013107563979681</v>
+        <v>-0.008226609628961511</v>
       </c>
       <c r="F16">
-        <v>0.03389028043775676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03359126635998686</v>
+      </c>
+      <c r="G16">
+        <v>0.005913782210457664</v>
+      </c>
+      <c r="H16">
+        <v>0.006099732941421598</v>
+      </c>
+      <c r="I16">
+        <v>0.02880993422729567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0677030337115795</v>
+        <v>0.05323144693613076</v>
       </c>
       <c r="C19">
-        <v>-0.04344822497370761</v>
+        <v>0.04657674111890165</v>
       </c>
       <c r="D19">
-        <v>0.03154380272434149</v>
+        <v>0.002660005609790347</v>
       </c>
       <c r="E19">
-        <v>-0.0009573707935767071</v>
+        <v>-0.02306837277010053</v>
       </c>
       <c r="F19">
-        <v>0.07991746981094816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09093497930954664</v>
+      </c>
+      <c r="G19">
+        <v>0.05657095492642224</v>
+      </c>
+      <c r="H19">
+        <v>0.02207310701002725</v>
+      </c>
+      <c r="I19">
+        <v>0.06801062314250826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03371651728340871</v>
+        <v>0.01983594545771136</v>
       </c>
       <c r="C20">
-        <v>-0.02877378620877751</v>
+        <v>0.03046020863508057</v>
       </c>
       <c r="D20">
-        <v>0.04563388608160921</v>
+        <v>-0.005707820009834131</v>
       </c>
       <c r="E20">
-        <v>-0.01833807701418028</v>
+        <v>-0.02161131971584642</v>
       </c>
       <c r="F20">
-        <v>0.06357073974942613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06285421342284638</v>
+      </c>
+      <c r="G20">
+        <v>0.05801288499008226</v>
+      </c>
+      <c r="H20">
+        <v>0.01472158577723728</v>
+      </c>
+      <c r="I20">
+        <v>0.07626624650199791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03875147607107486</v>
+        <v>0.03386485817776212</v>
       </c>
       <c r="C21">
-        <v>-0.03770066935138721</v>
+        <v>0.03192056655546226</v>
       </c>
       <c r="D21">
-        <v>0.02362054701467154</v>
+        <v>-0.01139369807762437</v>
       </c>
       <c r="E21">
-        <v>0.005867421741712649</v>
+        <v>-0.007487019286809759</v>
       </c>
       <c r="F21">
-        <v>0.1020502067325786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.08047997764728433</v>
+      </c>
+      <c r="G21">
+        <v>0.01505512038634103</v>
+      </c>
+      <c r="H21">
+        <v>0.04825955971165027</v>
+      </c>
+      <c r="I21">
+        <v>0.003244688854130067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.049520287849999</v>
+        <v>0.04069963617025678</v>
       </c>
       <c r="C24">
-        <v>-0.01943065956569319</v>
+        <v>0.03088470126413273</v>
       </c>
       <c r="D24">
-        <v>0.01717481724160166</v>
+        <v>-0.0004176054687414285</v>
       </c>
       <c r="E24">
-        <v>-0.003878588826941897</v>
+        <v>-0.01107022276711547</v>
       </c>
       <c r="F24">
-        <v>0.04226145339778191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.0360117470256937</v>
+      </c>
+      <c r="G24">
+        <v>0.0008449225924250212</v>
+      </c>
+      <c r="H24">
+        <v>0.008795476177242039</v>
+      </c>
+      <c r="I24">
+        <v>0.0294166536631982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05217843351400804</v>
+        <v>0.04781960592058825</v>
       </c>
       <c r="C25">
-        <v>-0.01569354912308359</v>
+        <v>0.02809964699787974</v>
       </c>
       <c r="D25">
-        <v>0.01287289397779057</v>
+        <v>0.0004867369503905038</v>
       </c>
       <c r="E25">
-        <v>-0.002068894128249781</v>
+        <v>-0.009769154190574477</v>
       </c>
       <c r="F25">
-        <v>0.04021360997860081</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04234065258554333</v>
+      </c>
+      <c r="G25">
+        <v>-0.0007485532125361019</v>
+      </c>
+      <c r="H25">
+        <v>0.01366234439160857</v>
+      </c>
+      <c r="I25">
+        <v>0.02041023446983279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02806589730730258</v>
+        <v>0.01644342033317372</v>
       </c>
       <c r="C26">
-        <v>-0.03119712693430646</v>
+        <v>0.03149714437930966</v>
       </c>
       <c r="D26">
-        <v>0.02632152184611262</v>
+        <v>0.00395099948309524</v>
       </c>
       <c r="E26">
-        <v>0.01793352473844142</v>
+        <v>-0.004426396399147726</v>
       </c>
       <c r="F26">
-        <v>0.03175224050047244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.0418316507443523</v>
+      </c>
+      <c r="G26">
+        <v>0.03163384171605935</v>
+      </c>
+      <c r="H26">
+        <v>0.01380091447678789</v>
+      </c>
+      <c r="I26">
+        <v>0.02773269181207465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1197558223433331</v>
+        <v>0.07103953558019099</v>
       </c>
       <c r="C27">
-        <v>-0.01623514514145946</v>
+        <v>0.02624553987467945</v>
       </c>
       <c r="D27">
-        <v>0.04246960377941267</v>
+        <v>-0.004857929780002554</v>
       </c>
       <c r="E27">
-        <v>-0.02708671735030597</v>
+        <v>-0.03409115223615776</v>
       </c>
       <c r="F27">
-        <v>0.07846605471011878</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.06491528380212656</v>
+      </c>
+      <c r="G27">
+        <v>0.01670156532647706</v>
+      </c>
+      <c r="H27">
+        <v>0.02517967846681272</v>
+      </c>
+      <c r="I27">
+        <v>0.03885357246154095</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02588957379669378</v>
+        <v>0.05177205187827093</v>
       </c>
       <c r="C28">
-        <v>0.2244921067906598</v>
+        <v>-0.2480417042714032</v>
       </c>
       <c r="D28">
-        <v>-0.1185165211734376</v>
+        <v>0.003701877555260484</v>
       </c>
       <c r="E28">
-        <v>0.03540541099209959</v>
+        <v>0.05350560502011008</v>
       </c>
       <c r="F28">
-        <v>0.05385862184653475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05739605770629497</v>
+      </c>
+      <c r="G28">
+        <v>0.03682278815478443</v>
+      </c>
+      <c r="H28">
+        <v>0.0459952411761338</v>
+      </c>
+      <c r="I28">
+        <v>0.07424623687096027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.03252759894792613</v>
+        <v>0.02451003167267034</v>
       </c>
       <c r="C29">
-        <v>-0.01755089396362623</v>
+        <v>0.02157206270525162</v>
       </c>
       <c r="D29">
-        <v>0.03731344752741001</v>
+        <v>-0.009068164481495309</v>
       </c>
       <c r="E29">
-        <v>-0.01550485984578063</v>
+        <v>-0.0300452711352009</v>
       </c>
       <c r="F29">
-        <v>0.02060892919380458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03273231331227829</v>
+      </c>
+      <c r="G29">
+        <v>0.05276725747614545</v>
+      </c>
+      <c r="H29">
+        <v>0.02017626320555583</v>
+      </c>
+      <c r="I29">
+        <v>0.003838785224137505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1155696888676216</v>
+        <v>0.08943327577381499</v>
       </c>
       <c r="C30">
-        <v>-0.01775892764784896</v>
+        <v>0.05229344833708784</v>
       </c>
       <c r="D30">
-        <v>0.04722482696048521</v>
+        <v>0.03770312210881966</v>
       </c>
       <c r="E30">
-        <v>0.006172351437003262</v>
+        <v>-0.03524931103714984</v>
       </c>
       <c r="F30">
-        <v>0.1049322669329228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1056499894011017</v>
+      </c>
+      <c r="G30">
+        <v>0.01060073070678281</v>
+      </c>
+      <c r="H30">
+        <v>-0.007198230466126052</v>
+      </c>
+      <c r="I30">
+        <v>0.02380851526512901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06969861154254935</v>
+        <v>0.06157646198340136</v>
       </c>
       <c r="C31">
-        <v>-0.01266537413005542</v>
+        <v>0.02349962431037689</v>
       </c>
       <c r="D31">
-        <v>0.03035316494426521</v>
+        <v>0.009919998998624438</v>
       </c>
       <c r="E31">
-        <v>0.03266652083372874</v>
+        <v>-0.02384303917375825</v>
       </c>
       <c r="F31">
-        <v>-0.03568127408227911</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.005250949958973346</v>
+      </c>
+      <c r="G31">
+        <v>0.04557709360304624</v>
+      </c>
+      <c r="H31">
+        <v>0.03616371179078747</v>
+      </c>
+      <c r="I31">
+        <v>0.01189925115072419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.07085628869977159</v>
+        <v>0.04195506453387784</v>
       </c>
       <c r="C32">
-        <v>-0.03385918218271462</v>
+        <v>0.04673606513280634</v>
       </c>
       <c r="D32">
-        <v>0.04161295738176587</v>
+        <v>-0.01600560970034468</v>
       </c>
       <c r="E32">
-        <v>-0.01608799051869118</v>
+        <v>-0.03631988110924309</v>
       </c>
       <c r="F32">
-        <v>0.09203460685917222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08281412596107486</v>
+      </c>
+      <c r="G32">
+        <v>0.03601772574353573</v>
+      </c>
+      <c r="H32">
+        <v>0.02765334759920991</v>
+      </c>
+      <c r="I32">
+        <v>0.05154063395395734</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.07011944038635459</v>
+        <v>0.05592769133644021</v>
       </c>
       <c r="C33">
-        <v>-0.05274464758572701</v>
+        <v>0.05659193205785116</v>
       </c>
       <c r="D33">
-        <v>0.04495482957438758</v>
+        <v>0.01865224248650173</v>
       </c>
       <c r="E33">
-        <v>0.01257126696818386</v>
+        <v>-0.01481306809961358</v>
       </c>
       <c r="F33">
-        <v>0.06609396386456247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0733633548395818</v>
+      </c>
+      <c r="G33">
+        <v>0.03844563947579949</v>
+      </c>
+      <c r="H33">
+        <v>0.0399206847520188</v>
+      </c>
+      <c r="I33">
+        <v>0.03080341794445702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05072468635778082</v>
+        <v>0.04271738136478083</v>
       </c>
       <c r="C34">
-        <v>-0.01887151970553499</v>
+        <v>0.03546637692385773</v>
       </c>
       <c r="D34">
-        <v>0.01946774161826741</v>
+        <v>-0.00438409599068568</v>
       </c>
       <c r="E34">
-        <v>-0.003132709745113626</v>
+        <v>-0.01712216844415337</v>
       </c>
       <c r="F34">
-        <v>0.02811451174240447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03273660622796449</v>
+      </c>
+      <c r="G34">
+        <v>0.007627323534532979</v>
+      </c>
+      <c r="H34">
+        <v>0.00930945095680975</v>
+      </c>
+      <c r="I34">
+        <v>0.02447710080164861</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01817243979358078</v>
+        <v>0.01550502225524198</v>
       </c>
       <c r="C36">
-        <v>-0.002453941770631037</v>
+        <v>0.006091063206207309</v>
       </c>
       <c r="D36">
-        <v>0.01323223463992097</v>
+        <v>-0.004519062540153577</v>
       </c>
       <c r="E36">
-        <v>-0.005487653639427364</v>
+        <v>-0.01020354321973778</v>
       </c>
       <c r="F36">
-        <v>0.01698265306143734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02461270571142398</v>
+      </c>
+      <c r="G36">
+        <v>0.03622762484728855</v>
+      </c>
+      <c r="H36">
+        <v>0.02135245965698694</v>
+      </c>
+      <c r="I36">
+        <v>-0.00758323045768406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04304177227074318</v>
+        <v>0.03511946673491684</v>
       </c>
       <c r="C38">
-        <v>-0.009705502230146752</v>
+        <v>0.01476877748051493</v>
       </c>
       <c r="D38">
-        <v>0.01848483353355885</v>
+        <v>-0.004165041645635826</v>
       </c>
       <c r="E38">
-        <v>-0.01913097748902527</v>
+        <v>-0.01079559035507524</v>
       </c>
       <c r="F38">
-        <v>0.0224495292129664</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04954584216835221</v>
+      </c>
+      <c r="G38">
+        <v>0.02242936307910157</v>
+      </c>
+      <c r="H38">
+        <v>0.02355810825164385</v>
+      </c>
+      <c r="I38">
+        <v>-0.01089275523406878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07143876177869485</v>
+        <v>0.05394866545691993</v>
       </c>
       <c r="C39">
-        <v>-0.01938952860439442</v>
+        <v>0.04803369710999376</v>
       </c>
       <c r="D39">
-        <v>0.02594692635514036</v>
+        <v>0.005263315209115678</v>
       </c>
       <c r="E39">
-        <v>0.01354212758916746</v>
+        <v>-0.02003551074049861</v>
       </c>
       <c r="F39">
-        <v>0.03570330307474253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05420262905382045</v>
+      </c>
+      <c r="G39">
+        <v>-0.004982640677827705</v>
+      </c>
+      <c r="H39">
+        <v>0.02171495183412908</v>
+      </c>
+      <c r="I39">
+        <v>0.007388885792593179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07572814784752883</v>
+        <v>0.05548027582501903</v>
       </c>
       <c r="C40">
-        <v>-0.01680770659852538</v>
+        <v>0.04513944901248836</v>
       </c>
       <c r="D40">
-        <v>0.06089208721164441</v>
+        <v>0.02080407717608279</v>
       </c>
       <c r="E40">
-        <v>0.03283176571019089</v>
+        <v>-0.02771990506216957</v>
       </c>
       <c r="F40">
-        <v>0.1096225749569721</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.09690228898589881</v>
+      </c>
+      <c r="G40">
+        <v>0.03231653947262782</v>
+      </c>
+      <c r="H40">
+        <v>0.03112085755176573</v>
+      </c>
+      <c r="I40">
+        <v>0.1072876402574146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.003654148989833334</v>
+        <v>0.004634066046044384</v>
       </c>
       <c r="C41">
-        <v>-0.02164458934385472</v>
+        <v>0.01157335716305913</v>
       </c>
       <c r="D41">
-        <v>0.03110841687656051</v>
+        <v>0.0002238548785173642</v>
       </c>
       <c r="E41">
-        <v>-0.00597799480996096</v>
+        <v>-0.01067407971976478</v>
       </c>
       <c r="F41">
-        <v>-0.008283104483160768</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01055586295568334</v>
+      </c>
+      <c r="G41">
+        <v>0.04518779457688029</v>
+      </c>
+      <c r="H41">
+        <v>0.04013131978077955</v>
+      </c>
+      <c r="I41">
+        <v>0.0122931925448289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2030576530056915</v>
+        <v>0.2260206309512087</v>
       </c>
       <c r="C42">
-        <v>-0.5330007203468123</v>
+        <v>0.2625133971395299</v>
       </c>
       <c r="D42">
-        <v>-0.746739016553263</v>
+        <v>0.05418011310972388</v>
       </c>
       <c r="E42">
-        <v>0.2603199451877739</v>
+        <v>0.907046601951347</v>
       </c>
       <c r="F42">
-        <v>-0.05088098487913786</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.15598733412067</v>
+      </c>
+      <c r="G42">
+        <v>-0.002565275481039104</v>
+      </c>
+      <c r="H42">
+        <v>-0.008011923430640293</v>
+      </c>
+      <c r="I42">
+        <v>0.05523019334155795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007101085609526041</v>
+        <v>0.008744092017920681</v>
       </c>
       <c r="C43">
-        <v>-0.02319846550693623</v>
+        <v>0.0134952503233128</v>
       </c>
       <c r="D43">
-        <v>0.03330374183474695</v>
+        <v>0.003031671545432275</v>
       </c>
       <c r="E43">
-        <v>-0.002314625651888202</v>
+        <v>-0.009887383261930534</v>
       </c>
       <c r="F43">
-        <v>0.02142141349096459</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02420450394440611</v>
+      </c>
+      <c r="G43">
+        <v>0.03344545236012746</v>
+      </c>
+      <c r="H43">
+        <v>0.02342181881947727</v>
+      </c>
+      <c r="I43">
+        <v>0.02181183977666633</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04663221371315922</v>
+        <v>0.03009492145344786</v>
       </c>
       <c r="C44">
-        <v>-0.04438953758017383</v>
+        <v>0.04337656659857005</v>
       </c>
       <c r="D44">
-        <v>0.04578379258381754</v>
+        <v>-0.001950161747188177</v>
       </c>
       <c r="E44">
-        <v>0.004769588405518346</v>
+        <v>-0.01828943232082636</v>
       </c>
       <c r="F44">
-        <v>0.1105990762853031</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1178395838638965</v>
+      </c>
+      <c r="G44">
+        <v>0.0843372981829501</v>
+      </c>
+      <c r="H44">
+        <v>0.05711499670654588</v>
+      </c>
+      <c r="I44">
+        <v>0.0525518545687893</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03371522840267811</v>
+        <v>0.02667107547580809</v>
       </c>
       <c r="C46">
-        <v>-0.01956914111397082</v>
+        <v>0.03521894674353299</v>
       </c>
       <c r="D46">
-        <v>0.0399816939079799</v>
+        <v>0.003992328168190802</v>
       </c>
       <c r="E46">
-        <v>0.0001817075401582586</v>
+        <v>-0.03221986841156125</v>
       </c>
       <c r="F46">
-        <v>0.01537317065877886</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04346758038326361</v>
+      </c>
+      <c r="G46">
+        <v>0.05829312546213209</v>
+      </c>
+      <c r="H46">
+        <v>0.01921742417416696</v>
+      </c>
+      <c r="I46">
+        <v>0.008961682976216611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09608705438560876</v>
+        <v>0.08671658289873709</v>
       </c>
       <c r="C47">
-        <v>-0.006835752077706422</v>
+        <v>0.019627054555461</v>
       </c>
       <c r="D47">
-        <v>0.02824235180615051</v>
+        <v>0.004742593913440997</v>
       </c>
       <c r="E47">
-        <v>-0.002036982854750162</v>
+        <v>-0.02835391414401699</v>
       </c>
       <c r="F47">
-        <v>-0.02876685779662908</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01745789255678247</v>
+      </c>
+      <c r="G47">
+        <v>0.06173090980825283</v>
+      </c>
+      <c r="H47">
+        <v>0.02991530293532971</v>
+      </c>
+      <c r="I47">
+        <v>0.03412005651951758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.02149697334246245</v>
+        <v>0.02084501890415277</v>
       </c>
       <c r="C48">
-        <v>-0.02017414670898158</v>
+        <v>0.01826785384244072</v>
       </c>
       <c r="D48">
-        <v>0.02647922532212937</v>
+        <v>-0.0007363498325453881</v>
       </c>
       <c r="E48">
-        <v>0.0006597075017724978</v>
+        <v>-0.01441105110407131</v>
       </c>
       <c r="F48">
-        <v>0.02114755837430481</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02591974155010912</v>
+      </c>
+      <c r="G48">
+        <v>0.0258162825395126</v>
+      </c>
+      <c r="H48">
+        <v>0.0177241488817793</v>
+      </c>
+      <c r="I48">
+        <v>0.01088938778160081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09341900871384073</v>
+        <v>0.08837467425854893</v>
       </c>
       <c r="C50">
-        <v>-0.0274913198998279</v>
+        <v>0.04111124255844524</v>
       </c>
       <c r="D50">
-        <v>0.03363329919532327</v>
+        <v>-0.009894497891969431</v>
       </c>
       <c r="E50">
-        <v>0.007652595123584688</v>
+        <v>-0.02633724515243043</v>
       </c>
       <c r="F50">
-        <v>-0.02984939133808263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0114168364193898</v>
+      </c>
+      <c r="G50">
+        <v>0.03840649300260576</v>
+      </c>
+      <c r="H50">
+        <v>-0.008263656810622426</v>
+      </c>
+      <c r="I50">
+        <v>-0.004503717182808173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05781107314734609</v>
+        <v>0.03960260755175685</v>
       </c>
       <c r="C51">
-        <v>0.01536298510886431</v>
+        <v>-0.003686894376981643</v>
       </c>
       <c r="D51">
-        <v>0.02306846460987277</v>
+        <v>0.01060901988544393</v>
       </c>
       <c r="E51">
-        <v>0.03205028483492103</v>
+        <v>-0.012683811765735</v>
       </c>
       <c r="F51">
-        <v>0.0655582265769684</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.09196791908070329</v>
+      </c>
+      <c r="G51">
+        <v>0.06538067781464732</v>
+      </c>
+      <c r="H51">
+        <v>0.05462014458993723</v>
+      </c>
+      <c r="I51">
+        <v>0.03137182017816004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1348221895428704</v>
+        <v>0.1239260482647026</v>
       </c>
       <c r="C53">
-        <v>-0.005549116780284151</v>
+        <v>0.03632907885993287</v>
       </c>
       <c r="D53">
-        <v>0.05672370537505085</v>
+        <v>0.005827552378688663</v>
       </c>
       <c r="E53">
-        <v>0.006532036729695149</v>
+        <v>-0.05390211605326919</v>
       </c>
       <c r="F53">
-        <v>-0.06184401790499466</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04790474005221765</v>
+      </c>
+      <c r="G53">
+        <v>0.007526467812405558</v>
+      </c>
+      <c r="H53">
+        <v>0.02973515462840902</v>
+      </c>
+      <c r="I53">
+        <v>0.04016437287034547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02914965866120535</v>
+        <v>0.0268266473020171</v>
       </c>
       <c r="C54">
-        <v>-0.002510879377876115</v>
+        <v>0.008120299067376819</v>
       </c>
       <c r="D54">
-        <v>0.03284667215878089</v>
+        <v>-0.004864422710339772</v>
       </c>
       <c r="E54">
-        <v>-0.007142348031322994</v>
+        <v>-0.031368642259011</v>
       </c>
       <c r="F54">
-        <v>0.02179126461712251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03022416720708442</v>
+      </c>
+      <c r="G54">
+        <v>0.05248792545899558</v>
+      </c>
+      <c r="H54">
+        <v>0.03602188268797821</v>
+      </c>
+      <c r="I54">
+        <v>0.003409518537825241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1062127061581611</v>
+        <v>0.09751905351018375</v>
       </c>
       <c r="C55">
-        <v>0.008931371075886606</v>
+        <v>0.03158347347617081</v>
       </c>
       <c r="D55">
-        <v>0.02851203445714368</v>
+        <v>-0.01251255157223493</v>
       </c>
       <c r="E55">
-        <v>-0.04087615531520837</v>
+        <v>-0.03791935164445949</v>
       </c>
       <c r="F55">
-        <v>-0.02434312125520605</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.03680634608105839</v>
+      </c>
+      <c r="G55">
+        <v>0.02170353279762575</v>
+      </c>
+      <c r="H55">
+        <v>-0.008805464340647828</v>
+      </c>
+      <c r="I55">
+        <v>0.02236051253930625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1674242286567222</v>
+        <v>0.163111319662</v>
       </c>
       <c r="C56">
-        <v>0.04743150567471325</v>
+        <v>0.01940933546060405</v>
       </c>
       <c r="D56">
-        <v>0.0737816245655715</v>
+        <v>0.001613338481193886</v>
       </c>
       <c r="E56">
-        <v>-0.02701406281768791</v>
+        <v>-0.08627049983512519</v>
       </c>
       <c r="F56">
-        <v>-0.101168101204867</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.0921116373856648</v>
+      </c>
+      <c r="G56">
+        <v>-0.03943931990848005</v>
+      </c>
+      <c r="H56">
+        <v>-0.01059524396128126</v>
+      </c>
+      <c r="I56">
+        <v>0.04569362221915235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08745402730521643</v>
+        <v>0.06720669402560919</v>
       </c>
       <c r="C57">
-        <v>-0.02313832835217779</v>
+        <v>0.03349746272359354</v>
       </c>
       <c r="D57">
-        <v>0.03650718830864822</v>
+        <v>0.02096158057939341</v>
       </c>
       <c r="E57">
-        <v>0.03035405469061503</v>
+        <v>-0.006243422945310675</v>
       </c>
       <c r="F57">
-        <v>0.04967976311142439</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.07014342453742994</v>
+      </c>
+      <c r="G57">
+        <v>0.01576561935539548</v>
+      </c>
+      <c r="H57">
+        <v>0.01671510242459168</v>
+      </c>
+      <c r="I57">
+        <v>0.02772612338439859</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2002678758844306</v>
+        <v>0.2102874404988438</v>
       </c>
       <c r="C58">
-        <v>-0.0484565336859915</v>
+        <v>0.1021707978885734</v>
       </c>
       <c r="D58">
-        <v>0.05800660570979072</v>
+        <v>0.09326784714370634</v>
       </c>
       <c r="E58">
-        <v>0.0481136867344474</v>
+        <v>0.01069468637795459</v>
       </c>
       <c r="F58">
-        <v>0.1269014464855496</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2791498894823176</v>
+      </c>
+      <c r="G58">
+        <v>0.3826710910110019</v>
+      </c>
+      <c r="H58">
+        <v>-0.3332386719992403</v>
+      </c>
+      <c r="I58">
+        <v>-0.6894187333505415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02486817378064354</v>
+        <v>0.05096245075393806</v>
       </c>
       <c r="C59">
-        <v>0.1855472915320575</v>
+        <v>-0.2042459719252155</v>
       </c>
       <c r="D59">
-        <v>-0.07254004529705672</v>
+        <v>0.01775680710107057</v>
       </c>
       <c r="E59">
-        <v>0.02426139962563244</v>
+        <v>0.01868819837854596</v>
       </c>
       <c r="F59">
-        <v>0.05576487638750156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.06979112544890456</v>
+      </c>
+      <c r="G59">
+        <v>-0.00456511080289784</v>
+      </c>
+      <c r="H59">
+        <v>0.01629062274065124</v>
+      </c>
+      <c r="I59">
+        <v>0.01608837544517299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1799335904167518</v>
+        <v>0.1916996957872479</v>
       </c>
       <c r="C60">
-        <v>0.07543222268593716</v>
+        <v>-0.05173371192460238</v>
       </c>
       <c r="D60">
-        <v>0.0153074807859728</v>
+        <v>0.04929162360628456</v>
       </c>
       <c r="E60">
-        <v>0.06954676090782037</v>
+        <v>-0.01181451663847068</v>
       </c>
       <c r="F60">
-        <v>0.1889349489517553</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.199475906358928</v>
+      </c>
+      <c r="G60">
+        <v>-0.3356102347296377</v>
+      </c>
+      <c r="H60">
+        <v>-0.002574556721904156</v>
+      </c>
+      <c r="I60">
+        <v>-0.02915047259052221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04355258238216152</v>
+        <v>0.03923765649114696</v>
       </c>
       <c r="C61">
-        <v>-0.01385006176903919</v>
+        <v>0.03415326139429861</v>
       </c>
       <c r="D61">
-        <v>0.01460858458676573</v>
+        <v>-0.001723412294912855</v>
       </c>
       <c r="E61">
-        <v>-0.005097162947423317</v>
+        <v>-0.01214898060272614</v>
       </c>
       <c r="F61">
-        <v>0.03217551369793598</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03585840387852214</v>
+      </c>
+      <c r="G61">
+        <v>-0.007031440106281784</v>
+      </c>
+      <c r="H61">
+        <v>0.01093347198570801</v>
+      </c>
+      <c r="I61">
+        <v>-0.004151880293257048</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04256914872031003</v>
+        <v>0.03084753897630586</v>
       </c>
       <c r="C63">
-        <v>-0.01118858348026543</v>
+        <v>0.02500527952430541</v>
       </c>
       <c r="D63">
-        <v>0.02759043459079694</v>
+        <v>0.001794786365789404</v>
       </c>
       <c r="E63">
-        <v>0.007236321307597882</v>
+        <v>-0.01602310766738443</v>
       </c>
       <c r="F63">
-        <v>0.03563989003029292</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02935864017749309</v>
+      </c>
+      <c r="G63">
+        <v>0.04924385652463668</v>
+      </c>
+      <c r="H63">
+        <v>0.005845971804584463</v>
+      </c>
+      <c r="I63">
+        <v>0.0365218652761817</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06238152478132807</v>
+        <v>0.05615046771365242</v>
       </c>
       <c r="C64">
-        <v>-0.02525807921810602</v>
+        <v>0.03423264598653719</v>
       </c>
       <c r="D64">
-        <v>0.03006937295058898</v>
+        <v>-0.01053903053746393</v>
       </c>
       <c r="E64">
-        <v>-0.03004357170120378</v>
+        <v>-0.02154269073706083</v>
       </c>
       <c r="F64">
-        <v>0.0300947163553873</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03785664986691175</v>
+      </c>
+      <c r="G64">
+        <v>0.02796558481994816</v>
+      </c>
+      <c r="H64">
+        <v>0.05937250399800183</v>
+      </c>
+      <c r="I64">
+        <v>0.03590604694390424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02473999515508154</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01034281735138095</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.004964490621393972</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006466397241700014</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.004057175896636076</v>
+      </c>
+      <c r="G65">
+        <v>-0.019125915614417</v>
+      </c>
+      <c r="H65">
+        <v>-0.0191187048771781</v>
+      </c>
+      <c r="I65">
+        <v>-0.00469951070771157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.07884572394700466</v>
+        <v>0.06736678570752833</v>
       </c>
       <c r="C66">
-        <v>-0.02705336468549491</v>
+        <v>0.05721524277556497</v>
       </c>
       <c r="D66">
-        <v>0.05317507550453942</v>
+        <v>0.01241558313448396</v>
       </c>
       <c r="E66">
-        <v>-0.001106753520027209</v>
+        <v>-0.04857744156666893</v>
       </c>
       <c r="F66">
-        <v>0.07298929312793653</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06664770281823119</v>
+      </c>
+      <c r="G66">
+        <v>-0.01095224960747302</v>
+      </c>
+      <c r="H66">
+        <v>0.009562747236867078</v>
+      </c>
+      <c r="I66">
+        <v>0.04163324129315116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05362077906972036</v>
+        <v>0.04773653556175257</v>
       </c>
       <c r="C67">
-        <v>0.01258887625368193</v>
+        <v>-0.003336635746676248</v>
       </c>
       <c r="D67">
-        <v>0.001834271638355294</v>
+        <v>0.001376888800052678</v>
       </c>
       <c r="E67">
-        <v>-0.006515497820544626</v>
+        <v>-0.008569813033303852</v>
       </c>
       <c r="F67">
-        <v>0.01889088911805279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.0378812087619291</v>
+      </c>
+      <c r="G67">
+        <v>0.004732452973524169</v>
+      </c>
+      <c r="H67">
+        <v>0.03479244942783269</v>
+      </c>
+      <c r="I67">
+        <v>-0.02570222315771261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04191512384663754</v>
+        <v>0.06102580177424677</v>
       </c>
       <c r="C68">
-        <v>0.2171751709187681</v>
+        <v>-0.2362937263972219</v>
       </c>
       <c r="D68">
-        <v>-0.1071708315082639</v>
+        <v>0.01723051392253213</v>
       </c>
       <c r="E68">
-        <v>0.03338092247415467</v>
+        <v>0.03848819826654726</v>
       </c>
       <c r="F68">
-        <v>0.05245501304789661</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04947205437853453</v>
+      </c>
+      <c r="G68">
+        <v>0.02121034093987097</v>
+      </c>
+      <c r="H68">
+        <v>-0.00327938853932107</v>
+      </c>
+      <c r="I68">
+        <v>0.03857572045235969</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.08013998899016248</v>
+        <v>0.07224243411799568</v>
       </c>
       <c r="C69">
-        <v>0.0001014169657730835</v>
+        <v>0.02044429196632829</v>
       </c>
       <c r="D69">
-        <v>0.02779523849956616</v>
+        <v>0.006119372123108897</v>
       </c>
       <c r="E69">
-        <v>0.0004232977873787368</v>
+        <v>-0.03156819510040503</v>
       </c>
       <c r="F69">
-        <v>-0.01791448342281941</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.005243021465859719</v>
+      </c>
+      <c r="G69">
+        <v>0.03844082138329696</v>
+      </c>
+      <c r="H69">
+        <v>0.0250920927523888</v>
+      </c>
+      <c r="I69">
+        <v>0.01727563783486041</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.03862329361392198</v>
+        <v>0.0577979134476691</v>
       </c>
       <c r="C71">
-        <v>0.2598891092007481</v>
+        <v>-0.2589613731394938</v>
       </c>
       <c r="D71">
-        <v>-0.1273728035955649</v>
+        <v>0.02146410880404441</v>
       </c>
       <c r="E71">
-        <v>0.07504812131984739</v>
+        <v>0.06497305229874087</v>
       </c>
       <c r="F71">
-        <v>0.0865024387742037</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.07040488830874098</v>
+      </c>
+      <c r="G71">
+        <v>0.02589652811008119</v>
+      </c>
+      <c r="H71">
+        <v>0.02387287742371086</v>
+      </c>
+      <c r="I71">
+        <v>0.04656394095675041</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1291705139023274</v>
+        <v>0.1239464117252785</v>
       </c>
       <c r="C72">
-        <v>0.03052860057839321</v>
+        <v>0.0374150871095363</v>
       </c>
       <c r="D72">
-        <v>0.05178696216979102</v>
+        <v>0.009472092970119092</v>
       </c>
       <c r="E72">
-        <v>-0.001951112300245</v>
+        <v>-0.07391871754720596</v>
       </c>
       <c r="F72">
-        <v>0.07434017363801897</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.08315584240295724</v>
+      </c>
+      <c r="G72">
+        <v>-0.03370257499733566</v>
+      </c>
+      <c r="H72">
+        <v>-0.04916996360741791</v>
+      </c>
+      <c r="I72">
+        <v>-0.1147302075792691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2728455821284158</v>
+        <v>0.2705382679096065</v>
       </c>
       <c r="C73">
-        <v>0.1413484894555899</v>
+        <v>-0.07638806839459122</v>
       </c>
       <c r="D73">
-        <v>-0.0436562218768882</v>
+        <v>0.08646337279527784</v>
       </c>
       <c r="E73">
-        <v>0.1012134761403765</v>
+        <v>0.03257862055155541</v>
       </c>
       <c r="F73">
-        <v>0.3223055559298799</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2940899749403105</v>
+      </c>
+      <c r="G73">
+        <v>-0.5252600062864295</v>
+      </c>
+      <c r="H73">
+        <v>-0.06509226254632561</v>
+      </c>
+      <c r="I73">
+        <v>-0.1074449749402641</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1476570015003813</v>
+        <v>0.1461321320768324</v>
       </c>
       <c r="C74">
-        <v>0.008444145885308407</v>
+        <v>0.03245527838411127</v>
       </c>
       <c r="D74">
-        <v>0.04531736075201052</v>
+        <v>0.01142145620954415</v>
       </c>
       <c r="E74">
-        <v>0.002765660761188629</v>
+        <v>-0.05153000353092843</v>
       </c>
       <c r="F74">
-        <v>-0.049551075234319</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.0689742221051549</v>
+      </c>
+      <c r="G74">
+        <v>-0.02475690758077193</v>
+      </c>
+      <c r="H74">
+        <v>-0.01834608583642744</v>
+      </c>
+      <c r="I74">
+        <v>0.07465668088556764</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2249623355475955</v>
+        <v>0.2466549426140173</v>
       </c>
       <c r="C75">
-        <v>0.03801281991150487</v>
+        <v>0.02157234058828184</v>
       </c>
       <c r="D75">
-        <v>0.08592048180763674</v>
+        <v>0.02867166426670127</v>
       </c>
       <c r="E75">
-        <v>0.008048447962247646</v>
+        <v>-0.1149948583856247</v>
       </c>
       <c r="F75">
-        <v>-0.142738741279053</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1466937321550405</v>
+      </c>
+      <c r="G75">
+        <v>-0.01630746187998211</v>
+      </c>
+      <c r="H75">
+        <v>0.0145908620164626</v>
+      </c>
+      <c r="I75">
+        <v>0.04328161517446585</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2488115084433949</v>
+        <v>0.2626356259109543</v>
       </c>
       <c r="C76">
-        <v>0.07351988819870897</v>
+        <v>0.01192352160665892</v>
       </c>
       <c r="D76">
-        <v>0.08141941445960225</v>
+        <v>-0.01112864047844813</v>
       </c>
       <c r="E76">
-        <v>-0.06184608319305828</v>
+        <v>-0.1389952285327521</v>
       </c>
       <c r="F76">
-        <v>-0.1338050965235695</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1834865859483259</v>
+      </c>
+      <c r="G76">
+        <v>-0.0372320959541682</v>
+      </c>
+      <c r="H76">
+        <v>-0.06478429976884814</v>
+      </c>
+      <c r="I76">
+        <v>0.05888881589833603</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1379461435178326</v>
+        <v>0.11913983394681</v>
       </c>
       <c r="C77">
-        <v>-0.06292674459978799</v>
+        <v>0.0753327065282758</v>
       </c>
       <c r="D77">
-        <v>0.01614044020375273</v>
+        <v>0.008069423316946418</v>
       </c>
       <c r="E77">
-        <v>0.01326869230041859</v>
+        <v>0.03217777330153024</v>
       </c>
       <c r="F77">
-        <v>0.1540990819574215</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1615309433691754</v>
+      </c>
+      <c r="G77">
+        <v>0.2140336647083114</v>
+      </c>
+      <c r="H77">
+        <v>-0.01007806586245183</v>
+      </c>
+      <c r="I77">
+        <v>0.2403175781417568</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.09542076664376868</v>
+        <v>0.07265440977577378</v>
       </c>
       <c r="C78">
-        <v>-0.07647565775502373</v>
+        <v>0.07660859023628482</v>
       </c>
       <c r="D78">
-        <v>0.02442521685296316</v>
+        <v>-0.004856223634912126</v>
       </c>
       <c r="E78">
-        <v>-0.01027783075381824</v>
+        <v>-0.009712830515035563</v>
       </c>
       <c r="F78">
-        <v>0.0516778461527017</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07011752279833454</v>
+      </c>
+      <c r="G78">
+        <v>0.01516071997907894</v>
+      </c>
+      <c r="H78">
+        <v>0.01834881420464078</v>
+      </c>
+      <c r="I78">
+        <v>0.04590538104481302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1046825740486434</v>
+        <v>0.1383587201062758</v>
       </c>
       <c r="C80">
-        <v>-0.02792089699471914</v>
+        <v>-0.04119300618382436</v>
       </c>
       <c r="D80">
-        <v>-0.2958849298155338</v>
+        <v>-0.9754126490028523</v>
       </c>
       <c r="E80">
-        <v>-0.9234645272365667</v>
+        <v>0.0549667305920804</v>
       </c>
       <c r="F80">
-        <v>0.07754588096251422</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.044561961915424</v>
+      </c>
+      <c r="G80">
+        <v>-0.03397006544967083</v>
+      </c>
+      <c r="H80">
+        <v>0.03223995893845071</v>
+      </c>
+      <c r="I80">
+        <v>-0.09681595661728425</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.157559649671532</v>
+        <v>0.1814923651411596</v>
       </c>
       <c r="C81">
-        <v>0.02712821594793536</v>
+        <v>0.008371442155303634</v>
       </c>
       <c r="D81">
-        <v>0.04616326376322794</v>
+        <v>0.007538229838865541</v>
       </c>
       <c r="E81">
-        <v>-0.00945852230359571</v>
+        <v>-0.08678065959777277</v>
       </c>
       <c r="F81">
-        <v>-0.1867018287604886</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1621803473179917</v>
+      </c>
+      <c r="G81">
+        <v>0.01367484247124882</v>
+      </c>
+      <c r="H81">
+        <v>-0.02071811996877278</v>
+      </c>
+      <c r="I81">
+        <v>0.01149867619910447</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09591306242963016</v>
+        <v>0.07102074072414687</v>
       </c>
       <c r="C83">
-        <v>-0.09512502285793104</v>
+        <v>0.06101640033211102</v>
       </c>
       <c r="D83">
-        <v>-0.002444403438477676</v>
+        <v>0.01454248412579561</v>
       </c>
       <c r="E83">
-        <v>0.03807811878649053</v>
+        <v>0.03162257862251266</v>
       </c>
       <c r="F83">
-        <v>0.02421187164980369</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04946074444462586</v>
+      </c>
+      <c r="G83">
+        <v>0.03551591319432362</v>
+      </c>
+      <c r="H83">
+        <v>0.06521154650571381</v>
+      </c>
+      <c r="I83">
+        <v>0.05390196566044515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2355567277266155</v>
+        <v>0.2495490930394484</v>
       </c>
       <c r="C85">
-        <v>-0.002224375021125015</v>
+        <v>0.05312628529957897</v>
       </c>
       <c r="D85">
-        <v>0.07941420773030934</v>
+        <v>0.008453226648310542</v>
       </c>
       <c r="E85">
-        <v>-0.05553170531710157</v>
+        <v>-0.1124033731129527</v>
       </c>
       <c r="F85">
-        <v>-0.1536750461570092</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1853099291727447</v>
+      </c>
+      <c r="G85">
+        <v>0.01349052311921162</v>
+      </c>
+      <c r="H85">
+        <v>-0.02085260824166194</v>
+      </c>
+      <c r="I85">
+        <v>0.07392108634532313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04231912986507452</v>
+        <v>0.02926617206063782</v>
       </c>
       <c r="C86">
-        <v>-0.045953572277513</v>
+        <v>0.05431138354189022</v>
       </c>
       <c r="D86">
-        <v>0.04164548423361405</v>
+        <v>0.002706857992441646</v>
       </c>
       <c r="E86">
-        <v>0.005558107674230374</v>
+        <v>-0.01785102400635994</v>
       </c>
       <c r="F86">
-        <v>0.07026652758897754</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08037086693096793</v>
+      </c>
+      <c r="G86">
+        <v>0.05878786857754124</v>
+      </c>
+      <c r="H86">
+        <v>0.008139712485744152</v>
+      </c>
+      <c r="I86">
+        <v>0.05523337792087126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01997960259055704</v>
+        <v>0.02766423709275454</v>
       </c>
       <c r="C87">
-        <v>0.033076715168597</v>
+        <v>-0.004789578596206138</v>
       </c>
       <c r="D87">
-        <v>-0.01807951241340556</v>
+        <v>-0.004635134119914325</v>
       </c>
       <c r="E87">
-        <v>0.004519900225179647</v>
+        <v>0.002575786846608476</v>
       </c>
       <c r="F87">
-        <v>0.09416461453510519</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1031694886718766</v>
+      </c>
+      <c r="G87">
+        <v>0.02787423409491401</v>
+      </c>
+      <c r="H87">
+        <v>-0.01338585122701987</v>
+      </c>
+      <c r="I87">
+        <v>0.03220199903418068</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03187318485462406</v>
+        <v>0.03692282634461519</v>
       </c>
       <c r="C88">
-        <v>-0.0199912050517701</v>
+        <v>0.009945875857457136</v>
       </c>
       <c r="D88">
-        <v>0.01502876008672619</v>
+        <v>-0.005631257557538986</v>
       </c>
       <c r="E88">
-        <v>-0.02271399804835123</v>
+        <v>-0.007001282924231459</v>
       </c>
       <c r="F88">
-        <v>-0.02529804469058013</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01845850206491923</v>
+      </c>
+      <c r="G88">
+        <v>0.02444988211534434</v>
+      </c>
+      <c r="H88">
+        <v>0.04885222546807778</v>
+      </c>
+      <c r="I88">
+        <v>0.003856417746532708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.05465942281282198</v>
+        <v>0.0932069518825849</v>
       </c>
       <c r="C89">
-        <v>0.3138717486143359</v>
+        <v>-0.3811966652916037</v>
       </c>
       <c r="D89">
-        <v>-0.2079393421727433</v>
+        <v>0.04684579174149545</v>
       </c>
       <c r="E89">
-        <v>0.08961044716968125</v>
+        <v>0.07482577026004304</v>
       </c>
       <c r="F89">
-        <v>0.03505585113061015</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.04560265135086099</v>
+      </c>
+      <c r="G89">
+        <v>0.08165386737416884</v>
+      </c>
+      <c r="H89">
+        <v>0.04330496821245262</v>
+      </c>
+      <c r="I89">
+        <v>0.09113290801222122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.03725194347743017</v>
+        <v>0.0582223058090782</v>
       </c>
       <c r="C90">
-        <v>0.2738941269291025</v>
+        <v>-0.3320759044184974</v>
       </c>
       <c r="D90">
-        <v>-0.171072876037966</v>
+        <v>0.02158402646861662</v>
       </c>
       <c r="E90">
-        <v>0.02534598913444697</v>
+        <v>0.06956600600616644</v>
       </c>
       <c r="F90">
-        <v>0.06715624686578396</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.03867643049106463</v>
+      </c>
+      <c r="G90">
+        <v>0.05452587257094201</v>
+      </c>
+      <c r="H90">
+        <v>0.01657196451114214</v>
+      </c>
+      <c r="I90">
+        <v>0.0622458404636146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2677987545801661</v>
+        <v>0.2843534407467314</v>
       </c>
       <c r="C91">
-        <v>0.00370084271693257</v>
+        <v>0.05378743240179176</v>
       </c>
       <c r="D91">
-        <v>0.08063730089580243</v>
+        <v>0.01745837084879163</v>
       </c>
       <c r="E91">
-        <v>-0.03809211135124447</v>
+        <v>-0.1072891760754962</v>
       </c>
       <c r="F91">
-        <v>-0.2731983253107504</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2712727419662329</v>
+      </c>
+      <c r="G91">
+        <v>-0.0008153054380482094</v>
+      </c>
+      <c r="H91">
+        <v>-0.05046109745881946</v>
+      </c>
+      <c r="I91">
+        <v>0.06384586926966833</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.07168145367306174</v>
+        <v>0.129036247314287</v>
       </c>
       <c r="C92">
-        <v>0.2872771944599105</v>
+        <v>-0.3771065640309967</v>
       </c>
       <c r="D92">
-        <v>-0.249343353746436</v>
+        <v>0.007867127893786897</v>
       </c>
       <c r="E92">
-        <v>0.0120496124107614</v>
+        <v>0.0940445897347648</v>
       </c>
       <c r="F92">
-        <v>-0.09934539785036019</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1160275652717978</v>
+      </c>
+      <c r="G92">
+        <v>0.3358400366492197</v>
+      </c>
+      <c r="H92">
+        <v>-0.01501218511094373</v>
+      </c>
+      <c r="I92">
+        <v>-0.1112317146262305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.03380681270607146</v>
+        <v>0.07598176219968296</v>
       </c>
       <c r="C93">
-        <v>0.3207571233742103</v>
+        <v>-0.3968106261327966</v>
       </c>
       <c r="D93">
-        <v>-0.2226084288359425</v>
+        <v>0.03695880024766669</v>
       </c>
       <c r="E93">
-        <v>0.04635223840730845</v>
+        <v>0.1106540473312839</v>
       </c>
       <c r="F93">
-        <v>-0.004935147243516231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.0005407623968359072</v>
+      </c>
+      <c r="G93">
+        <v>0.02696617885725456</v>
+      </c>
+      <c r="H93">
+        <v>0.05473318166977246</v>
+      </c>
+      <c r="I93">
+        <v>0.004754983189473221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2814674872490175</v>
+        <v>0.3123006117874517</v>
       </c>
       <c r="C94">
-        <v>0.116361324606511</v>
+        <v>-0.03942465253397585</v>
       </c>
       <c r="D94">
-        <v>-0.000159680586128972</v>
+        <v>0.04422555295034598</v>
       </c>
       <c r="E94">
-        <v>-0.008360431185051576</v>
+        <v>-0.1176322478850599</v>
       </c>
       <c r="F94">
-        <v>-0.3356051953934943</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3132514942010886</v>
+      </c>
+      <c r="G94">
+        <v>0.07881130054547721</v>
+      </c>
+      <c r="H94">
+        <v>-0.2032669094212314</v>
+      </c>
+      <c r="I94">
+        <v>0.01471455295330431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1717369138411792</v>
+        <v>0.1317146938300776</v>
       </c>
       <c r="C95">
-        <v>-0.05253934299124164</v>
+        <v>0.05456059980727916</v>
       </c>
       <c r="D95">
-        <v>0.02291232101957812</v>
+        <v>0.08349433606898743</v>
       </c>
       <c r="E95">
-        <v>0.07865963618875209</v>
+        <v>-0.03082241284383712</v>
       </c>
       <c r="F95">
-        <v>-0.3994734139378202</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1047334200130509</v>
+      </c>
+      <c r="G95">
+        <v>0.03597574879814487</v>
+      </c>
+      <c r="H95">
+        <v>0.8738778160840807</v>
+      </c>
+      <c r="I95">
+        <v>-0.363602445582102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2054567295650768</v>
+        <v>0.2080139848467134</v>
       </c>
       <c r="C98">
-        <v>0.087700889563991</v>
+        <v>-0.06386750660347984</v>
       </c>
       <c r="D98">
-        <v>-0.02778861297022806</v>
+        <v>0.06214341309382106</v>
       </c>
       <c r="E98">
-        <v>0.08340912118910859</v>
+        <v>0.02494470202587176</v>
       </c>
       <c r="F98">
-        <v>0.09155877018781342</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1685404880275999</v>
+      </c>
+      <c r="G98">
+        <v>-0.3527589371595726</v>
+      </c>
+      <c r="H98">
+        <v>-0.01502688547994274</v>
+      </c>
+      <c r="I98">
+        <v>-0.1101493490929783</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.03247989037668591</v>
+        <v>0.0187699533857196</v>
       </c>
       <c r="C101">
-        <v>-0.01681631359604319</v>
+        <v>0.03216129897834702</v>
       </c>
       <c r="D101">
-        <v>0.03819326659618371</v>
+        <v>-0.004687195051451585</v>
       </c>
       <c r="E101">
-        <v>-0.01595954872887418</v>
+        <v>-0.03763305465380949</v>
       </c>
       <c r="F101">
-        <v>0.02142863079008709</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.06463601081555911</v>
+      </c>
+      <c r="G101">
+        <v>0.1107087124496961</v>
+      </c>
+      <c r="H101">
+        <v>-0.02104781911828091</v>
+      </c>
+      <c r="I101">
+        <v>-0.1141334793477038</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09975425114728254</v>
+        <v>0.1164238162729817</v>
       </c>
       <c r="C102">
-        <v>-0.01025402721148959</v>
+        <v>0.02536306934507396</v>
       </c>
       <c r="D102">
-        <v>0.04821738667256376</v>
+        <v>-0.004257660165522079</v>
       </c>
       <c r="E102">
-        <v>-0.03951401666384179</v>
+        <v>-0.05230997411704286</v>
       </c>
       <c r="F102">
-        <v>-0.1046210586607896</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.117822718362605</v>
+      </c>
+      <c r="G102">
+        <v>0.008065051375268148</v>
+      </c>
+      <c r="H102">
+        <v>0.001556938953402793</v>
+      </c>
+      <c r="I102">
+        <v>0.05438337732414598</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.0208722627289366</v>
+        <v>0.02926528255536271</v>
       </c>
       <c r="C103">
-        <v>-0.005043051543853328</v>
+        <v>0.009720170433380632</v>
       </c>
       <c r="D103">
-        <v>0.01808639525791928</v>
+        <v>-0.008614702681381446</v>
       </c>
       <c r="E103">
-        <v>-0.006367416043060158</v>
+        <v>-0.02004988806836708</v>
       </c>
       <c r="F103">
-        <v>-0.03342725531194306</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02599738167431197</v>
+      </c>
+      <c r="G103">
+        <v>0.01702118104990548</v>
+      </c>
+      <c r="H103">
+        <v>0.008651707549944172</v>
+      </c>
+      <c r="I103">
+        <v>0.01337330558731133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
